--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="76">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t xml:space="preserve">added resonant reflectivity spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select grid motors by setting position column headers</t>
   </si>
 </sst>
 </file>
@@ -1464,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1476,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6654240" cy="1785240"/>
+          <a:ext cx="6654600" cy="1784880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1709,9 +1712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1721,7 +1724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6654240" cy="1785240"/>
+          <a:ext cx="6654600" cy="1784880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1954,9 +1957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1966,7 +1969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6654240" cy="1785240"/>
+          <a:ext cx="6654600" cy="1784880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,9 +2202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2211,7 +2214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6654240" cy="1785240"/>
+          <a:ext cx="6654600" cy="1784880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,9 +2447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2456,7 +2459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6654240" cy="1785240"/>
+          <a:ext cx="6654600" cy="1784880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,7 +2696,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2750,7 +2753,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3368,7 +3371,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3425,7 +3428,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4043,7 +4046,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4100,7 +4103,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4718,7 +4721,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4775,7 +4778,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5393,7 +5396,7 @@
       <selection pane="bottomRight" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -5450,7 +5453,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -6058,13 +6061,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -6084,7 +6087,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <f aca="false">MAX(A6:A41)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="63"/>
     </row>
@@ -6226,6 +6229,14 @@
       </c>
       <c r="B21" s="0" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
